--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.760625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.800625" style="0" customWidth="1"/>
     <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.385425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.545425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.285425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.775425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,12 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.520625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="10.795425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.435425" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="10.795425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.215425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.255425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.605425" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="15.205425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.875425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.205425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.345425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="11.915425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.255425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.605425" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="15.205425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.875425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.205425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.345425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="11.915425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.175425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.145425" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="17.515425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="20.995425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.695425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="17.705425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.245425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.175425" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.145425" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="17.515425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="20.995425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="18.695425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="17.705425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="13.245425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.870625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="13.515425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.995425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.695425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.705425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.245425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.870625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="13.515425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.995425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="14.695425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="13.705425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="9.245425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.460625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="13.965425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.605425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.195425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.155425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.475425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.460625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="13.965425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.605425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.195425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.155425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="9.475425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.61395" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="13.327373" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.728761" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.480463" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.509463" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.140453" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,7 +585,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.570625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
     <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.385425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.580625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="12.285425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.685425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.455425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="12.285425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.825425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -601,11 +601,11 @@
       <x:c r="C1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
@@ -634,13 +634,13 @@
       <x:c r="A3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -648,27 +648,27 @@
       <x:c r="A4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="n">
+      <x:c r="F5" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="n">
+      <x:c r="G5" s="0">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="n">
+      <x:c r="H5" s="0">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -676,15 +676,15 @@
       <x:c r="A7" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
-      <x:c r="D7" s="1" t="s"/>
+      <x:c r="B7" s="1"/>
+      <x:c r="C7" s="1"/>
+      <x:c r="D7" s="1"/>
       <x:c r="F7" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G7" s="1" t="s"/>
-      <x:c r="H7" s="1" t="s"/>
-      <x:c r="I7" s="1" t="s"/>
+      <x:c r="G7" s="1"/>
+      <x:c r="H7" s="1"/>
+      <x:c r="I7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
@@ -713,7 +713,7 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
@@ -734,12 +734,12 @@
       <x:c r="H9" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="n">
+      <x:c r="I9" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
@@ -760,12 +760,12 @@
       <x:c r="H10" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="n">
+      <x:c r="I10" s="0">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
@@ -786,12 +786,12 @@
       <x:c r="H11" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I11" s="0" t="n">
+      <x:c r="I11" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
-      <x:c r="A12" s="0" t="n">
+      <x:c r="A12" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
@@ -805,7 +805,7 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
-      <x:c r="A13" s="0" t="n">
+      <x:c r="A13" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
@@ -822,9 +822,9 @@
       <x:c r="F15" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G15" s="1" t="s"/>
-      <x:c r="H15" s="1" t="s"/>
-      <x:c r="I15" s="1" t="s"/>
+      <x:c r="G15" s="1"/>
+      <x:c r="H15" s="1"/>
+      <x:c r="I15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="F16" s="0" t="s">
@@ -850,7 +850,7 @@
       <x:c r="H17" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="n">
+      <x:c r="I17" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
@@ -864,7 +864,7 @@
       <x:c r="H18" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I18" s="0" t="n">
+      <x:c r="I18" s="0">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -878,7 +878,7 @@
       <x:c r="H19" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I19" s="0" t="n">
+      <x:c r="I19" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>From Strings</x:t>
   </x:si>
@@ -585,13 +585,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.580625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="12.285425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.685425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.455425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="12.285425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.825425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="5" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.424911" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="6.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Inserting Tables" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Inserting Tables" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Titles">'Inserting Tables'!$A$1:$A$1,'Inserting Tables'!$C$1:$H$1,'Inserting Tables'!$A$7:$D$7,'Inserting Tables'!$F$7:$I$7,'Inserting Tables'!$F$15:$I$15</x:definedName>
